--- a/Material + Ano + Estrutura/Tentativa 1/Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)/Ao longo das Épocas.xlsx
+++ b/Material + Ano + Estrutura/Tentativa 1/Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)/Ao longo das Épocas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano + Estrutura\Tentativa 1\Tentativa 1 com Modelo Tentativa 1 - Material + Ano (do zero)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525E11D-EA7B-418F-A092-5291913E4519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99838F2-0EBC-4039-8E77-3B4E75D7F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>17.11662673950195</v>
+        <v>19.07767295837402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.78401392698287964</v>
+        <v>0.65774673223495483</v>
       </c>
       <c r="D2" s="2">
-        <v>10.148690223693849</v>
+        <v>28.641330718994141</v>
       </c>
       <c r="E2" s="2">
-        <v>0.82945734262466431</v>
+        <v>0.40527951717376709</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14.676327705383301</v>
+        <v>8.5210027694702148</v>
       </c>
       <c r="C3" s="2">
-        <v>0.82852721214294434</v>
+        <v>0.79658716917037964</v>
       </c>
       <c r="D3" s="2">
-        <v>21.308328628540039</v>
+        <v>16.492837905883789</v>
       </c>
       <c r="E3" s="2">
-        <v>0.86046510934829712</v>
+        <v>0.69254660606384277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>14.57035446166992</v>
+        <v>2.9517698287963872</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84284883737564087</v>
+        <v>0.8888888955116272</v>
       </c>
       <c r="D4" s="2">
-        <v>28.352870941162109</v>
+        <v>17.846256256103519</v>
       </c>
       <c r="E4" s="2">
-        <v>0.85891473293304443</v>
+        <v>0.76708072423934937</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>6.5528626441955566</v>
+        <v>1.970294117927551</v>
       </c>
       <c r="C5" s="2">
-        <v>0.89936131238937378</v>
+        <v>0.92941629886627197</v>
       </c>
       <c r="D5" s="2">
-        <v>19.600095748901371</v>
+        <v>16.374261856079102</v>
       </c>
       <c r="E5" s="2">
-        <v>0.86511629819869995</v>
+        <v>0.79968941211700439</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4.7494311332702637</v>
+        <v>1.814477205276489</v>
       </c>
       <c r="C6" s="2">
-        <v>0.91407006978988647</v>
+        <v>0.93949973583221436</v>
       </c>
       <c r="D6" s="2">
-        <v>18.031562805175781</v>
+        <v>17.85329437255859</v>
       </c>
       <c r="E6" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.79813665151596069</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1.899387001991272</v>
+        <v>1.18517017364502</v>
       </c>
       <c r="C7" s="2">
-        <v>0.94851946830749512</v>
+        <v>0.94628661870956421</v>
       </c>
       <c r="D7" s="2">
-        <v>23.644071578979489</v>
+        <v>18.258905410766602</v>
       </c>
       <c r="E7" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.78105592727661133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.183063268661499</v>
+        <v>0.99732047319412231</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96187341213226318</v>
+        <v>0.95850300788879395</v>
       </c>
       <c r="D8" s="2">
-        <v>16.276350021362301</v>
+        <v>18.96553993225098</v>
       </c>
       <c r="E8" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.8090062141418457</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1.195310711860657</v>
+        <v>0.92134541273117065</v>
       </c>
       <c r="C9" s="2">
-        <v>0.95432555675506592</v>
+        <v>0.96141165494918823</v>
       </c>
       <c r="D9" s="2">
-        <v>15.649661064147949</v>
+        <v>15.14725494384766</v>
       </c>
       <c r="E9" s="2">
-        <v>0.86356586217880249</v>
+        <v>0.77639752626419067</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1.7993185520172119</v>
+        <v>0.55339562892913818</v>
       </c>
       <c r="C10" s="2">
-        <v>0.94716471433639526</v>
+        <v>0.97459763288497925</v>
       </c>
       <c r="D10" s="2">
-        <v>14.558854103088381</v>
+        <v>15.44826030731201</v>
       </c>
       <c r="E10" s="2">
-        <v>0.76744186878204346</v>
+        <v>0.78571426868438721</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1.746537566184998</v>
+        <v>0.66187018156051636</v>
       </c>
       <c r="C11" s="2">
-        <v>0.9614863395690918</v>
+        <v>0.96839249134063721</v>
       </c>
       <c r="D11" s="2">
-        <v>15.777021408081049</v>
+        <v>15.13919162750244</v>
       </c>
       <c r="E11" s="2">
-        <v>0.74108529090881348</v>
+        <v>0.80279505252838135</v>
       </c>
     </row>
   </sheetData>
